--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Xemchinhsachcongty(mobile)_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Xemchinhsachcongty(mobile)_ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7218D0B2-8B9E-4FED-AE27-92F3BE413265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A8DE37-A77B-479D-8DB4-FA88C114FEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>Author</t>
   </si>
@@ -221,9 +221,6 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>Fix some defects in TCs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trịnh Như Phương </t>
   </si>
   <si>
@@ -357,13 +354,13 @@
     <t xml:space="preserve">Complete </t>
   </si>
   <si>
-    <t>1.3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 03/06/2020</t>
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>28/04/2020</t>
   </si>
 </sst>
 </file>
@@ -1186,6 +1183,27 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,27 +1228,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1291,13 +1288,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1306,8 +1303,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1318,7 +1321,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1327,38 +1345,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1681,10 +1678,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFE873A-AD25-4BF2-8897-0768A44FCA6A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:E20"/>
+  <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1699,31 +1696,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="B3" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1747,7 +1744,7 @@
         <v>43880</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>25</v>
@@ -1758,10 +1755,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>27</v>
@@ -1771,9 +1768,11 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="D9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>44</v>
@@ -1783,98 +1782,88 @@
       <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12">
+        <v>43953</v>
+      </c>
       <c r="D10" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-    </row>
-    <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+    </row>
+    <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+    </row>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="55"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="63"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
-    </row>
-    <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
-    </row>
-    <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+    </row>
+    <row r="19" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1937,14 +1926,14 @@
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="77"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="78"/>
       <c r="H2" s="79"/>
@@ -1955,7 +1944,7 @@
       </c>
       <c r="B3" s="81"/>
       <c r="C3" s="82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="83"/>
       <c r="E3" s="30" t="s">
@@ -2026,13 +2015,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>35</v>
@@ -2048,13 +2037,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>35</v>
@@ -2070,13 +2059,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>35</v>
@@ -2092,13 +2081,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>35</v>
@@ -2158,8 +2147,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -2178,17 +2167,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="A1" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2227,356 +2216,355 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
       <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86">
+      <c r="A5" s="100">
         <v>1</v>
       </c>
-      <c r="B5" s="96" t="s">
-        <v>70</v>
+      <c r="B5" s="103" t="s">
+        <v>69</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="101" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>78</v>
       </c>
       <c r="F5" s="47">
         <v>1</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="106" t="s">
-        <v>92</v>
+        <v>56</v>
+      </c>
+      <c r="J5" s="86" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87"/>
-      <c r="B6" s="97"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="90"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="102"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="47">
         <v>2</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="107"/>
+        <v>58</v>
+      </c>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:10" s="46" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="103"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="47">
         <v>3</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="108"/>
+        <v>77</v>
+      </c>
+      <c r="J7" s="88"/>
     </row>
     <row r="8" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86">
+      <c r="A8" s="100">
         <v>2</v>
       </c>
       <c r="B8" s="89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="101" t="s">
-        <v>83</v>
+        <v>70</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>82</v>
       </c>
       <c r="F8" s="47">
         <v>1</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="106" t="s">
-        <v>92</v>
+        <v>56</v>
+      </c>
+      <c r="J8" s="86" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="90"/>
       <c r="C9" s="90"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="102"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="47">
         <v>2</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="107"/>
+        <v>58</v>
+      </c>
+      <c r="J9" s="87"/>
     </row>
     <row r="10" spans="1:10" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="90"/>
       <c r="C10" s="90"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="102"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="92"/>
       <c r="F10" s="47">
         <v>3</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="107"/>
+        <v>74</v>
+      </c>
+      <c r="J10" s="87"/>
     </row>
     <row r="11" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="88"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="103"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="47">
         <v>4</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="88"/>
+    </row>
+    <row r="12" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="100">
+        <v>2</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="91" t="s">
         <v>84</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="108"/>
-    </row>
-    <row r="12" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="86">
-        <v>2</v>
-      </c>
-      <c r="B12" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="101" t="s">
-        <v>85</v>
       </c>
       <c r="F12" s="47">
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="106" t="s">
-        <v>92</v>
+        <v>56</v>
+      </c>
+      <c r="J12" s="86" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="90"/>
       <c r="C13" s="90"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="102"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="92"/>
       <c r="F13" s="47">
         <v>2</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="43"/>
       <c r="I13" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="107"/>
+        <v>58</v>
+      </c>
+      <c r="J13" s="87"/>
     </row>
     <row r="14" spans="1:10" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="90"/>
       <c r="C14" s="90"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="102"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="92"/>
       <c r="F14" s="47">
         <v>3</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="43"/>
       <c r="I14" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="107"/>
+        <v>74</v>
+      </c>
+      <c r="J14" s="87"/>
     </row>
     <row r="15" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="88"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="103"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="47">
         <v>4</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="88"/>
+    </row>
+    <row r="16" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="100">
+        <v>21</v>
+      </c>
+      <c r="B16" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="94" t="s">
         <v>86</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="108"/>
-    </row>
-    <row r="16" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="86">
-        <v>21</v>
-      </c>
-      <c r="B16" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="92" t="s">
-        <v>87</v>
       </c>
       <c r="F16" s="47">
         <v>1</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="106" t="s">
-        <v>92</v>
+        <v>56</v>
+      </c>
+      <c r="J16" s="86" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="97"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="90"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
       <c r="F17" s="42">
         <v>2</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="43"/>
       <c r="I17" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="107"/>
+        <v>58</v>
+      </c>
+      <c r="J17" s="87"/>
     </row>
     <row r="18" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
-      <c r="B18" s="97"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="90"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
       <c r="F18" s="41">
         <v>3</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="107"/>
+        <v>74</v>
+      </c>
+      <c r="J18" s="87"/>
     </row>
     <row r="19" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="95"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
       <c r="F19" s="41">
         <v>4</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H19" s="32"/>
       <c r="I19" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="108"/>
+        <v>63</v>
+      </c>
+      <c r="J19" s="88"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="D16:D19"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A8:A11"/>
@@ -2588,13 +2576,14 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C16:C19"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
